--- a/CybSoftServices/DataUploadTemplates/ServiceNamesample.xlsx
+++ b/CybSoftServices/DataUploadTemplates/ServiceNamesample.xlsx
@@ -21,20 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>michael.aruebo@cyberspace.net.ng</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>ExpiredDate</t>
   </si>
   <si>
@@ -47,23 +38,296 @@
     <t>AlertExpired</t>
   </si>
   <si>
-    <t>Edu portal</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>30/12/2018</t>
-  </si>
-  <si>
-    <t>monthly</t>
+    <t>Server Description</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Access Details</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iWEB Window Svr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NE-R050-300CN )ne-r050-300cn</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">iWEB Window Svr (NE-R050-192CN) + additional 128GB Ram
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iWEB Window Svr (CL-T103-534CN)
+cl-t103-534cn
+</t>
+  </si>
+  <si>
+    <t>iWeb Windows Server (CL-T209-092CN)</t>
+  </si>
+  <si>
+    <t>Application Server - FINTECH (NE-R018-033CN)
+ne-r018-033cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Server - FINTECH (NE-R012-291CN)
+NE-R012-291CN </t>
+  </si>
+  <si>
+    <t>Cyberspace Exchange Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeTwo Emain Signature
+URL: https://emailsignatures365.codetwo.com/
+Plan: Monthly subscription 
+Licenses: 10
+Renews on: November 8, 2018
+Support: support@codetwo.com
+</t>
+  </si>
+  <si>
+    <t>CLOUD DNS &amp; WEBSITES HOSTING SERVERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Cloud DNS Server - ivhosting.com; http://bsk.ivhosting.com; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary DNS and Websites Host Server - Hostgator.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedicated Linux Host Server - Hostgator.com - cybsoftnig.net: </t>
+  </si>
+  <si>
+    <t>Dedicated Linux Host Server - Hostgator.com - cybsoftnig.net:</t>
+  </si>
+  <si>
+    <t>CodeTwo Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ixwebhosting.com shared hosting (windows platform) for UIDLC. https://my.ixwebhosting.com/dashboard; Server 
+</t>
+  </si>
+  <si>
+    <t>SSL Expiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kogi Poly, KSU, UI DLC_Old, AOCOED, PTI, French Village, Visafone PMS, other portals </t>
+  </si>
+  <si>
+    <t>UIDLC, NIBSS (Hosting &amp; Cisco ASA Firewall), CyberPay Gateway, NAITES</t>
+  </si>
+  <si>
+    <t>Software Testing Server for CYBSOFT</t>
+  </si>
+  <si>
+    <t>Backup Server for DBs and NOUN Data Archive</t>
+  </si>
+  <si>
+    <t>Application Server for Fintech - PenRemit</t>
+  </si>
+  <si>
+    <t>Database Server for Fintech App - PENREMIT</t>
+  </si>
+  <si>
+    <t>Office 365</t>
+  </si>
+  <si>
+    <t>Host Domains for all our Eduportal Services, Zenith Subsidiaries and Chairman domains</t>
+  </si>
+  <si>
+    <t>Host Websites for Zenith Subsidiaries and indigenous customers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Host Websites for all our Eduportal Services, Cyberspace. Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>This will show all the three packages</t>
+    </r>
+  </si>
+  <si>
+    <t>jim.jimoviafoundation.org</t>
+  </si>
+  <si>
+    <t>zen.zenithassetmanagement.com</t>
+  </si>
+  <si>
+    <t>URL: https://emailsignatures365.codetwo.com
+Plan: Monthly subscription, Licenses: 10,Renews on: November 8, 2018,Support: support@codetwo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared Hosting on Windows for UI DLC apps.dlc.ui.edu.ng </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019-08-27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019-09-04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019-09-09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019-04-09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2019-03-02</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2019-03-02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019-03-18</t>
+    </r>
+  </si>
+  <si>
+    <t>Expiring Date</t>
+  </si>
+  <si>
+    <t>Aug. 20th 2019</t>
+  </si>
+  <si>
+    <t>Jul. 29th 2019</t>
+  </si>
+  <si>
+    <t>23-09-2017</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CISCO SERVERS LOGIN DETAILS:
+198.72.112.107
+User:  admin
+Pass:  m4676fID8Hce</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Primary IP address : 67.205.111.144:7811
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Primary IP address : 174.142.192.183 REMOTE REBOOT URL : http://174.142.180.40
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Primary IP address : 108.163.128.203                    REMOTE REBOOT URL :  http://184.107.10.30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Primary IP address : 184.107.73.119           REMOTE REBOOT URL : http://184.107.10.10
+</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,13 +338,56 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +400,12 @@
         <bgColor indexed="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -100,21 +413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -134,36 +432,85 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -178,6 +525,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="https://networksolutions.112.2o7.net/b/ss/netsolglobal/1/H.17/s92675215311791?t=26%2F6%2F2010+7%3A16%3A44+1+-60&amp;ns=networksolutions&amp;v15=850430&amp;v16=850430&amp;v17="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7124700"/>
+          <a:ext cx="304800" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1" descr="https://networksolutions.112.2o7.net/b/ss/netsolglobal/1/H.17/s92675215311791?t=26%2F6%2F2010+7%3A16%3A44+1+-60&amp;ns=networksolutions&amp;v15=850430&amp;v16=850430&amp;v17="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7124700"/>
+          <a:ext cx="304800" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,81 +929,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
     <col min="2" max="2" width="43.140625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="36.140625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="15">
+        <v>43442</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43402</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43514</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43514</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="19">
+        <v>43324</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
